--- a/WebContent/db설계.xlsx
+++ b/WebContent/db설계.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web_app\Javaee_workspace\.metadata\PetShop\WebContent\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="192" yWindow="48" windowWidth="28428" windowHeight="12504"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>조류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +212,26 @@
   </si>
   <si>
     <t>ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,23 +350,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,6 +377,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,34 +672,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.69140625" customWidth="1"/>
-    <col min="2" max="2" width="15.84375" customWidth="1"/>
+    <col min="2" max="2" width="16.4609375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.69140625" customWidth="1"/>
     <col min="5" max="5" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.84375" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="5.84375" customWidth="1"/>
-    <col min="10" max="10" width="7.53515625" customWidth="1"/>
+    <col min="6" max="6" width="11.15234375" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" customWidth="1"/>
+    <col min="9" max="9" width="7.69140625" customWidth="1"/>
+    <col min="10" max="10" width="5.84375" customWidth="1"/>
+    <col min="11" max="11" width="7.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -682,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -693,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -704,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -715,37 +744,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -761,37 +792,41 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -801,17 +836,18 @@
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -827,11 +863,12 @@
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -840,8 +877,9 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -850,26 +888,29 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -879,15 +920,20 @@
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -903,9 +949,14 @@
       <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -915,25 +966,31 @@
       <c r="C23" s="1">
         <v>560000</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>44021</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
+      <c r="F23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -946,12 +1003,13 @@
       <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -968,8 +1026,9 @@
         <v>47</v>
       </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -985,9 +1044,10 @@
       <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F28" s="1"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1003,15 +1063,16 @@
       <c r="E29" s="1">
         <v>5</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/db설계.xlsx
+++ b/WebContent/db설계.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>조류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
@@ -998,12 +1010,9 @@
         <v>41</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="6"/>
@@ -1017,12 +1026,9 @@
         <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="1"/>
@@ -1036,12 +1042,9 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1">
         <v>4</v>
       </c>
       <c r="F28" s="1"/>
@@ -1055,16 +1058,40 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1">
-        <v>50</v>
-      </c>
-      <c r="E29" s="1">
         <v>5</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="7"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/WebContent/db설계.xlsx
+++ b/WebContent/db설계.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>조류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,15 +235,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객</t>
+    <t>Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특가상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이사료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +414,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,16 +726,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G40"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" customWidth="1"/>
-    <col min="2" max="2" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.69140625" customWidth="1"/>
     <col min="5" max="5" width="11.15234375" bestFit="1" customWidth="1"/>
@@ -810,18 +852,26 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1066,35 +1116,101 @@
       <c r="F29" s="1"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
         <v>2</v>
       </c>
-      <c r="C40">
-        <v>2</v>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A14:G14"/>
@@ -1103,6 +1219,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
